--- a/biology/Zoologie/Capricornis_sumatraensis/Capricornis_sumatraensis.xlsx
+++ b/biology/Zoologie/Capricornis_sumatraensis/Capricornis_sumatraensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capricornis sumatraensis ou Saro de Sumatra est une espèce de bovidés.
-Cette antilope chèvre mesure de 76 à 92 cm au garrot[1].
+Cette antilope chèvre mesure de 76 à 92 cm au garrot.
 Elle vit dans le sud de la Thaïlande, en Malaisie et sur l'île indonésienne de Sumatra sur les flancs des montagnes boisées. 
 Le saro de Sumatra mange de l'herbe et des feuilles.
 </t>
